--- a/src/test/resources/API_Users.xlsx
+++ b/src/test/resources/API_Users.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0969B67A-07DC-473B-84AA-4DB86D81CE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="UserRegister" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Testcases</t>
   </si>
@@ -51,7 +47,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>message</t>
+    <t>expectedMessage</t>
   </si>
   <si>
     <t>Success</t>
@@ -60,10 +56,13 @@
     <t>Test</t>
   </si>
   <si>
-    <t>deva@gmail.com</t>
-  </si>
-  <si>
-    <t>test@123</t>
+    <t>test003@admin.com</t>
+  </si>
+  <si>
+    <t>test@1234</t>
+  </si>
+  <si>
+    <t>201</t>
   </si>
   <si>
     <t>User account created successfully</t>
@@ -75,10 +74,7 @@
     <t>Test1</t>
   </si>
   <si>
-    <t>test1@gmail.com</t>
-  </si>
-  <si>
-    <t>test@1234</t>
+    <t>409</t>
   </si>
   <si>
     <t>An account already exists with the same email address</t>
@@ -93,6 +89,9 @@
     <t>test1.com</t>
   </si>
   <si>
+    <t>400</t>
+  </si>
+  <si>
     <t>A valid email address is required</t>
   </si>
   <si>
@@ -102,7 +101,10 @@
     <t>Test3</t>
   </si>
   <si>
-    <t>test12@gmail.com</t>
+    <t>intest002@admin.com</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>Password must be between 6 and 30 characters</t>
@@ -111,13 +113,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0072C5"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,41 +148,341 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF0072C5"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6AAB73"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF46E1E"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -167,31 +490,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -240,7 +842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -273,26 +875,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -325,23 +910,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,34 +1071,29 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="19.8583333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.425" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -545,7 +1108,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -559,7 +1122,7 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
@@ -568,33 +1131,33 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
-        <v>201</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
-        <v>409</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -609,47 +1172,48 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="5">
-        <v>400</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
-        <v>400</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6498E10F-5CEB-47D5-91F4-B8C0F617FB2B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{2AA6D0E5-C59A-4A2C-A533-6A69886DFAAE}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{BF389F07-166C-4244-BB2A-36B02C334FFA}"/>
+    <hyperlink ref="C2" r:id="rId1" display="test003@admin.com" tooltip="mailto:test003@admin.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="test003@admin.com" tooltip="mailto:test003@admin.com"/>
+    <hyperlink ref="C5" r:id="rId2" display="intest002@admin.com" tooltip="mailto:intest002@admin.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/API_Users.xlsx
+++ b/src/test/resources/API_Users.xlsx
@@ -56,7 +56,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>test003@admin.com</t>
+    <t>test004@admin.com</t>
   </si>
   <si>
     <t>test@1234</t>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1209,8 +1209,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="test003@admin.com" tooltip="mailto:test003@admin.com"/>
-    <hyperlink ref="C3" r:id="rId1" display="test003@admin.com" tooltip="mailto:test003@admin.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
     <hyperlink ref="C5" r:id="rId2" display="intest002@admin.com" tooltip="mailto:intest002@admin.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/API_Users.xlsx
+++ b/src/test/resources/API_Users.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserRegister" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Testcases</t>
   </si>
@@ -108,6 +109,21 @@
   </si>
   <si>
     <t>Password must be between 6 and 30 characters</t>
+  </si>
+  <si>
+    <t>Expected Message</t>
+  </si>
+  <si>
+    <t>Login successful</t>
+  </si>
+  <si>
+    <t>test0067.com</t>
+  </si>
+  <si>
+    <t>Invalid password</t>
+  </si>
+  <si>
+    <t>tEST</t>
   </si>
 </sst>
 </file>
@@ -138,7 +154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFF46E1E"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -591,26 +607,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,10 +750,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,11 +1099,11 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.1416666666667" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
@@ -1216,4 +1236,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16.6" customWidth="1"/>
+    <col min="2" max="2" width="20.6" customWidth="1"/>
+    <col min="3" max="3" width="14.4" customWidth="1"/>
+    <col min="5" max="5" width="8.8" style="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>400</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>400</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="test@1234"/>
+    <hyperlink ref="B4" r:id="rId1" display="test004@admin.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/API_Users.xlsx
+++ b/src/test/resources/API_Users.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Testcases</t>
   </si>
@@ -120,10 +120,16 @@
     <t>test0067.com</t>
   </si>
   <si>
-    <t>Invalid password</t>
-  </si>
-  <si>
     <t>tEST</t>
+  </si>
+  <si>
+    <t>Incorrect Password</t>
+  </si>
+  <si>
+    <t>test@12345678</t>
+  </si>
+  <si>
+    <t>Incorrect email address or password</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +169,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,134 +637,134 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,6 +772,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,13 +1256,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.6" customWidth="1"/>
     <col min="2" max="2" width="20.6" customWidth="1"/>
@@ -1318,13 +1333,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1334,6 +1349,26 @@
       </c>
       <c r="F4" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>400</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1341,6 +1376,8 @@
     <hyperlink ref="B2" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
     <hyperlink ref="C3" r:id="rId2" display="test@1234"/>
     <hyperlink ref="B4" r:id="rId1" display="test004@admin.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
+    <hyperlink ref="C5" r:id="rId3" display="test@12345678" tooltip="mailto:test@12345678"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/API_Users.xlsx
+++ b/src/test/resources/API_Users.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UserRegister" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="ChangePassword" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Testcases</t>
   </si>
@@ -48,7 +49,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>expectedMessage</t>
+    <t>Expected Message</t>
   </si>
   <si>
     <t>Success</t>
@@ -111,9 +112,6 @@
     <t>Password must be between 6 and 30 characters</t>
   </si>
   <si>
-    <t>Expected Message</t>
-  </si>
-  <si>
     <t>Login successful</t>
   </si>
   <si>
@@ -130,6 +128,51 @@
   </si>
   <si>
     <t>Incorrect email address or password</t>
+  </si>
+  <si>
+    <t>current password</t>
+  </si>
+  <si>
+    <t>new password</t>
+  </si>
+  <si>
+    <t>test@12345</t>
+  </si>
+  <si>
+    <t>test@76897</t>
+  </si>
+  <si>
+    <t>The password was successfully updated</t>
+  </si>
+  <si>
+    <t>Invalid Current Password</t>
+  </si>
+  <si>
+    <t>Current password must be between 6 and 30 characters</t>
+  </si>
+  <si>
+    <t>Incorrect Current Password</t>
+  </si>
+  <si>
+    <t>test@673456789</t>
+  </si>
+  <si>
+    <t>test@45678</t>
+  </si>
+  <si>
+    <t>The current password is incorrect</t>
+  </si>
+  <si>
+    <t>Invalid New Password</t>
+  </si>
+  <si>
+    <t>New password must be between 6 and 30 characters</t>
+  </si>
+  <si>
+    <t>New Password Same As Current Password</t>
+  </si>
+  <si>
+    <t>The new password should be different from the current password</t>
   </si>
 </sst>
 </file>
@@ -151,32 +194,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF46E1E"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0072C5"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF46E1E"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -636,7 +679,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,13 +809,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,7 +1158,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1123,12 +1166,12 @@
     <col min="1" max="1" width="18.1416666666667" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="19.8583333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.425" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.425" style="4" customWidth="1"/>
     <col min="7" max="7" width="37.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1143,7 +1186,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1166,7 +1209,7 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1189,7 +1232,7 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
@@ -1212,7 +1255,7 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
@@ -1235,7 +1278,7 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
@@ -1258,8 +1301,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1267,12 +1310,12 @@
     <col min="1" max="1" width="16.6" customWidth="1"/>
     <col min="2" max="2" width="20.6" customWidth="1"/>
     <col min="3" max="3" width="14.4" customWidth="1"/>
-    <col min="5" max="5" width="8.8" style="1"/>
+    <col min="5" max="5" width="8.8" style="4"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1282,13 +1325,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1304,11 +1347,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>200</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1316,18 +1359,18 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>400</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1335,40 +1378,40 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>400</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>400</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1382,4 +1425,182 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="37.1" customWidth="1"/>
+    <col min="2" max="2" width="23.7" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="5" width="12.1" customWidth="1"/>
+    <col min="7" max="7" width="24.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>400</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>400</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="test@12345"/>
+    <hyperlink ref="D2" r:id="rId2" display="test@76897"/>
+    <hyperlink ref="C3" r:id="rId3" display="test"/>
+    <hyperlink ref="D3" r:id="rId2" display="test@76897"/>
+    <hyperlink ref="B2" r:id="rId4" display="test004@admin.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="test004@admin.com"/>
+    <hyperlink ref="B4" r:id="rId4" display="test004@admin.com"/>
+    <hyperlink ref="C4" r:id="rId5" display="test@673456789"/>
+    <hyperlink ref="D4" r:id="rId6" display="test@45678"/>
+    <hyperlink ref="B5" r:id="rId4" display="test004@admin.com"/>
+    <hyperlink ref="C5" r:id="rId1" display="test@12345"/>
+    <hyperlink ref="B6" r:id="rId4" display="test004@admin.com"/>
+    <hyperlink ref="C6" r:id="rId1" display="test@12345"/>
+    <hyperlink ref="D6" r:id="rId1" display="test@12345"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/API_Users.xlsx
+++ b/src/test/resources/API_Users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UserRegister" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Testcases</t>
   </si>
@@ -136,10 +136,10 @@
     <t>new password</t>
   </si>
   <si>
-    <t>test@12345</t>
-  </si>
-  <si>
-    <t>test@76897</t>
+    <t>test@1234567</t>
+  </si>
+  <si>
+    <t>test@123456</t>
   </si>
   <si>
     <t>The password was successfully updated</t>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>test@673456789</t>
-  </si>
-  <si>
-    <t>test@45678</t>
   </si>
   <si>
     <t>The current password is incorrect</t>
@@ -809,12 +806,12 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1161,17 +1158,17 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.1416666666667" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="19.8583333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.425" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.425" style="5" customWidth="1"/>
     <col min="7" max="7" width="37.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1186,7 +1183,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1209,7 +1206,7 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1232,7 +1229,7 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
@@ -1255,7 +1252,7 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
@@ -1278,7 +1275,7 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
@@ -1305,17 +1302,17 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.6" customWidth="1"/>
     <col min="2" max="2" width="20.6" customWidth="1"/>
     <col min="3" max="3" width="14.4" customWidth="1"/>
-    <col min="5" max="5" width="8.8" style="4"/>
+    <col min="5" max="5" width="8.8" style="5"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1327,7 +1324,7 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
@@ -1347,10 +1344,10 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="1">
         <v>200</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1361,7 +1358,7 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="b">
@@ -1370,7 +1367,7 @@
       <c r="E3" s="7">
         <v>400</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1378,7 +1375,7 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
@@ -1390,7 +1387,7 @@
       <c r="E4" s="7">
         <v>400</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1401,7 +1398,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="b">
@@ -1410,7 +1407,7 @@
       <c r="E5" s="7">
         <v>400</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1430,22 +1427,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="37.1" customWidth="1"/>
     <col min="2" max="2" width="23.7" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="12.1" customWidth="1"/>
-    <col min="7" max="7" width="24.1" customWidth="1"/>
+    <col min="3" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="18.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.1" customWidth="1"/>
+    <col min="7" max="7" width="8.8" style="1"/>
+    <col min="8" max="8" width="24.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1453,152 +1452,175 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="b">
+      <c r="F2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="b">
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="1">
         <v>400</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>400</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="b">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G5" s="1">
         <v>400</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>43</v>
+      <c r="H5" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="b">
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G6" s="1">
         <v>400</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>400</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="test@12345"/>
-    <hyperlink ref="D2" r:id="rId2" display="test@76897"/>
-    <hyperlink ref="C3" r:id="rId3" display="test"/>
-    <hyperlink ref="D3" r:id="rId2" display="test@76897"/>
-    <hyperlink ref="B2" r:id="rId4" display="test004@admin.com"/>
-    <hyperlink ref="B3" r:id="rId4" display="test004@admin.com"/>
-    <hyperlink ref="B4" r:id="rId4" display="test004@admin.com"/>
-    <hyperlink ref="C4" r:id="rId5" display="test@673456789"/>
-    <hyperlink ref="D4" r:id="rId6" display="test@45678"/>
-    <hyperlink ref="B5" r:id="rId4" display="test004@admin.com"/>
-    <hyperlink ref="C5" r:id="rId1" display="test@12345"/>
-    <hyperlink ref="B6" r:id="rId4" display="test004@admin.com"/>
-    <hyperlink ref="C6" r:id="rId1" display="test@12345"/>
-    <hyperlink ref="D6" r:id="rId1" display="test@12345"/>
+    <hyperlink ref="D3" r:id="rId1" display="test"/>
+    <hyperlink ref="B2" r:id="rId2" display="test004@admin.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="test004@admin.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="test004@admin.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="test@673456789"/>
+    <hyperlink ref="B5" r:id="rId2" display="test004@admin.com"/>
+    <hyperlink ref="B6" r:id="rId2" display="test004@admin.com"/>
+    <hyperlink ref="C2" r:id="rId4" display="test@1234567" tooltip="mailto:test@1234567"/>
+    <hyperlink ref="C3" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
+    <hyperlink ref="D2" r:id="rId4" display="test@1234567" tooltip="mailto:test@1234567"/>
+    <hyperlink ref="E2" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
+    <hyperlink ref="C4" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
+    <hyperlink ref="C5" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
+    <hyperlink ref="C6" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
+    <hyperlink ref="E6" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
+    <hyperlink ref="D6" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
+    <hyperlink ref="D5" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
+    <hyperlink ref="E3" r:id="rId4" display="test@1234567"/>
+    <hyperlink ref="E4" r:id="rId4" display="test@1234567"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/API_Users.xlsx
+++ b/src/test/resources/API_Users.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>Testcases</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Password must be between 6 and 30 characters</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>Login successful</t>
@@ -804,15 +807,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,7 +1158,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1163,7 +1166,7 @@
     <col min="1" max="1" width="18.1416666666667" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="19.8583333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.425" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.425" style="4" customWidth="1"/>
     <col min="7" max="7" width="37.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1183,7 +1186,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1206,7 +1209,7 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1229,7 +1232,7 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
@@ -1252,7 +1255,7 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
@@ -1275,7 +1278,7 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
@@ -1299,7 +1302,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1307,7 +1310,7 @@
     <col min="1" max="1" width="16.6" customWidth="1"/>
     <col min="2" max="2" width="20.6" customWidth="1"/>
     <col min="3" max="3" width="14.4" customWidth="1"/>
-    <col min="5" max="5" width="8.8" style="5"/>
+    <col min="5" max="5" width="8.8" style="4"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1324,7 +1327,7 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
@@ -1344,11 +1347,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>200</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1356,7 +1359,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -1364,10 +1367,10 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
-        <v>400</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1379,36 +1382,36 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>400</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>400</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1433,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1455,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1478,88 +1481,88 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>200</v>
+      <c r="G2" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>400</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>39</v>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>400</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>42</v>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1567,37 +1570,37 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>400</v>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>400</v>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1610,17 +1613,10 @@
     <hyperlink ref="B5" r:id="rId2" display="test004@admin.com"/>
     <hyperlink ref="B6" r:id="rId2" display="test004@admin.com"/>
     <hyperlink ref="C2" r:id="rId4" display="test@1234567" tooltip="mailto:test@1234567"/>
-    <hyperlink ref="C3" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
     <hyperlink ref="D2" r:id="rId4" display="test@1234567" tooltip="mailto:test@1234567"/>
     <hyperlink ref="E2" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
-    <hyperlink ref="C4" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
-    <hyperlink ref="C5" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
-    <hyperlink ref="C6" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
-    <hyperlink ref="E6" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
-    <hyperlink ref="D6" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
-    <hyperlink ref="D5" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
-    <hyperlink ref="E3" r:id="rId4" display="test@1234567"/>
-    <hyperlink ref="E4" r:id="rId4" display="test@1234567"/>
+    <hyperlink ref="E3" r:id="rId4" display="test@1234567" tooltip="mailto:test@1234567"/>
+    <hyperlink ref="E4" r:id="rId4" display="test@1234567" tooltip="mailto:test@1234567"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/API_Users.xlsx
+++ b/src/test/resources/API_Users.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>Testcases</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>test004@admin.com</t>
+    <t>test005@admin.com</t>
   </si>
   <si>
     <t>test@1234</t>
@@ -112,6 +112,9 @@
     <t>Password must be between 6 and 30 characters</t>
   </si>
   <si>
+    <t>test003@admin.com</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>test@12345678</t>
   </si>
   <si>
+    <t>401</t>
+  </si>
+  <si>
     <t>Incorrect email address or password</t>
   </si>
   <si>
@@ -139,10 +145,7 @@
     <t>new password</t>
   </si>
   <si>
-    <t>test@1234567</t>
-  </si>
-  <si>
-    <t>test@123456</t>
+    <t>test@12345</t>
   </si>
   <si>
     <t>The password was successfully updated</t>
@@ -1158,7 +1161,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1203,7 +1206,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="b">
@@ -1287,9 +1290,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
-    <hyperlink ref="C3" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="test005@admin.com" tooltip="mailto:test005@admin.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="test005@admin.com" tooltip="mailto:test005@admin.com"/>
     <hyperlink ref="C5" r:id="rId2" display="intest002@admin.com" tooltip="mailto:intest002@admin.com"/>
+    <hyperlink ref="D2" r:id="rId3" display="test@1234"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1302,7 +1306,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1339,7 +1343,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1348,10 +1352,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
         <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1359,9 +1363,9 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="b">
@@ -1370,7 +1374,7 @@
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1378,49 +1382,50 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
-        <v>400</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <v>400</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>33</v>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="test003@admin.com" tooltip="mailto:test003@admin.com"/>
     <hyperlink ref="C3" r:id="rId2" display="test@1234"/>
-    <hyperlink ref="B4" r:id="rId1" display="test004@admin.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
     <hyperlink ref="C5" r:id="rId3" display="test@12345678" tooltip="mailto:test@12345678"/>
+    <hyperlink ref="B4" r:id="rId1" display="test003@admin.com" tooltip="mailto:test003@admin.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="test003@admin.com" tooltip="mailto:test003@admin.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="test@1234"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1433,7 +1438,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1458,10 +1463,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1481,39 +1486,39 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1522,24 +1527,24 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1548,21 +1553,21 @@
         <v>20</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1574,24 +1579,24 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1600,23 +1605,22 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="test"/>
-    <hyperlink ref="B2" r:id="rId2" display="test004@admin.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="test004@admin.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="test004@admin.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="test005@admin.com" tooltip="mailto:test005@admin.com"/>
     <hyperlink ref="D4" r:id="rId3" display="test@673456789"/>
-    <hyperlink ref="B5" r:id="rId2" display="test004@admin.com"/>
-    <hyperlink ref="B6" r:id="rId2" display="test004@admin.com"/>
-    <hyperlink ref="C2" r:id="rId4" display="test@1234567" tooltip="mailto:test@1234567"/>
-    <hyperlink ref="D2" r:id="rId4" display="test@1234567" tooltip="mailto:test@1234567"/>
-    <hyperlink ref="E2" r:id="rId5" display="test@123456" tooltip="mailto:test@123456"/>
-    <hyperlink ref="E3" r:id="rId4" display="test@1234567" tooltip="mailto:test@1234567"/>
-    <hyperlink ref="E4" r:id="rId4" display="test@1234567" tooltip="mailto:test@1234567"/>
+    <hyperlink ref="C2" r:id="rId4" display="test@1234" tooltip="mailto:test@1234"/>
+    <hyperlink ref="D2" r:id="rId4" display="test@1234" tooltip="mailto:test@1234"/>
+    <hyperlink ref="E2" r:id="rId5" display="test@12345" tooltip="mailto:test@12345"/>
+    <hyperlink ref="E3" r:id="rId4" display="test@1234" tooltip="mailto:test@1234"/>
+    <hyperlink ref="E4" r:id="rId4" display="test@1234" tooltip="mailto:test@1234"/>
+    <hyperlink ref="E6" r:id="rId5" display="test@12345"/>
+    <hyperlink ref="D5" r:id="rId5" display="test@12345"/>
+    <hyperlink ref="D6" r:id="rId5" display="test@12345"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/API_Users.xlsx
+++ b/src/test/resources/API_Users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserRegister" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Testcases</t>
   </si>
@@ -112,6 +112,12 @@
     <t>Password must be between 6 and 30 characters</t>
   </si>
   <si>
+    <t>test003@admin.com</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>Login successful</t>
   </si>
   <si>
@@ -136,7 +142,7 @@
     <t>new password</t>
   </si>
   <si>
-    <t>test@12345</t>
+    <t>test@123456</t>
   </si>
   <si>
     <t>test@76897</t>
@@ -816,6 +822,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,8 +1310,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1339,7 +1348,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1347,11 +1356,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
-        <v>200</v>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1359,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1367,8 +1376,8 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
-        <v>400</v>
+      <c r="E3" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -1378,17 +1387,17 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
-        <v>400</v>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>26</v>
@@ -1396,31 +1405,31 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
-        <v>400</v>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="test@1234"/>
-    <hyperlink ref="B4" r:id="rId1" display="test004@admin.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="test004@admin.com" tooltip="mailto:test004@admin.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="test@1234"/>
+    <hyperlink ref="B2" r:id="rId2" display="test003@admin.com" tooltip="mailto:test003@admin.com"/>
     <hyperlink ref="C5" r:id="rId3" display="test@12345678" tooltip="mailto:test@12345678"/>
+    <hyperlink ref="B4" r:id="rId2" display="test003@admin.com" tooltip="mailto:test003@admin.com"/>
+    <hyperlink ref="B5" r:id="rId2" display="test003@admin.com" tooltip="mailto:test003@admin.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1432,8 +1441,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1453,10 +1462,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1476,24 +1485,24 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>200</v>
+      <c r="F2" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1502,30 +1511,30 @@
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>400</v>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1534,18 +1543,18 @@
         <v>400</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1557,21 +1566,21 @@
         <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1580,12 +1589,12 @@
         <v>400</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="test@12345"/>
+    <hyperlink ref="C2" r:id="rId1" display="test@123456" tooltip="mailto:test@123456"/>
     <hyperlink ref="D2" r:id="rId2" display="test@76897"/>
     <hyperlink ref="C3" r:id="rId3" display="test"/>
     <hyperlink ref="D3" r:id="rId2" display="test@76897"/>
@@ -1595,10 +1604,10 @@
     <hyperlink ref="C4" r:id="rId5" display="test@673456789"/>
     <hyperlink ref="D4" r:id="rId6" display="test@45678"/>
     <hyperlink ref="B5" r:id="rId4" display="test004@admin.com"/>
-    <hyperlink ref="C5" r:id="rId1" display="test@12345"/>
+    <hyperlink ref="C5" r:id="rId1" display="test@123456" tooltip="mailto:test@123456"/>
     <hyperlink ref="B6" r:id="rId4" display="test004@admin.com"/>
-    <hyperlink ref="C6" r:id="rId1" display="test@12345"/>
-    <hyperlink ref="D6" r:id="rId1" display="test@12345"/>
+    <hyperlink ref="C6" r:id="rId1" display="test@123456" tooltip="mailto:test@123456"/>
+    <hyperlink ref="D6" r:id="rId1" display="test@123456" tooltip="mailto:test@123456"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
